--- a/Service.xlsx
+++ b/Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\OneDrive\Desktop\servicelearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B63793-194B-475B-B975-8AE2B9ACBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6F7363E4-B3FC-4A03-9C58-7BA70C1D6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2839284-4FFA-475E-93D8-31209850C5AB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{944C7C18-A4B5-48CC-95FF-D4F3D7B30F0A}"/>
+    <workbookView xWindow="5520" yWindow="2310" windowWidth="20955" windowHeight="11385" xr2:uid="{944C7C18-A4B5-48CC-95FF-D4F3D7B30F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
@@ -50,3230 +50,3230 @@
     <t>AAUW Greater Naples Branch</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=13</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=AAUW Greater Naples Branch</t>
   </si>
   <si>
     <t>ABLE Academy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5390</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=ABLE Academy</t>
   </si>
   <si>
     <t>Abuse Counseling and Treatment</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5862</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Abuse Counseling and Treatment</t>
   </si>
   <si>
     <t>Active Citizens for Children</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5834</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Active Citizens for Children</t>
   </si>
   <si>
     <t>Active Disabled Americans</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5856</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Active Disabled Americans</t>
   </si>
   <si>
     <t>Adam's Animal Rescue &amp; Sanctuary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5836</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Adam's Animal Rescue &amp; Sanctuary</t>
   </si>
   <si>
     <t>Adaptive Inclusive Recreation (AIR)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=40</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Adaptive Inclusive Recreation (AIR)</t>
   </si>
   <si>
     <t>Advance the Faith</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=882</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Advance the Faith</t>
   </si>
   <si>
     <t>AFCAAM (Catholic Charities Diocese of Venice)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5759</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=AFCAAM (Catholic Charities Diocese of Venice)</t>
   </si>
   <si>
     <t>All Souls Episcopal Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=68</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=All Souls Episcopal Church</t>
   </si>
   <si>
     <t>Alliance for Period Supplies of SWFL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=92</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Alliance for Period Supplies of SWFL</t>
   </si>
   <si>
     <t>Alliance for the Arts</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5810</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Alliance for the Arts</t>
   </si>
   <si>
     <t>Alzheimer's Support Network</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=59</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Alzheimer's Support Network</t>
   </si>
   <si>
     <t>American Cancer Society: Lee County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=73</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Cancer Society: Lee County</t>
   </si>
   <si>
     <t>American Heart Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=79</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Heart Association</t>
   </si>
   <si>
     <t>American Legion Department of Florida District 13</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=983</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Legion Department of Florida District 13</t>
   </si>
   <si>
     <t>American Red Cross, Florida Gulf Coast to Heartland Chapter</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5905</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Red Cross, Florida Gulf Coast to Heartland Chapter</t>
   </si>
   <si>
     <t>American Red Cross, South Florida Region</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=94</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Red Cross, South Florida Region</t>
   </si>
   <si>
     <t>American Society of Civil Engineers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5849</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=American Society of Civil Engineers</t>
   </si>
   <si>
     <t>AmeriCorps FLCC</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5877</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=AmeriCorps FLCC</t>
   </si>
   <si>
     <t>AMIkids Southwest Florida Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5395</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=AMIkids Southwest Florida Inc.</t>
   </si>
   <si>
     <t>Andrew's Anthem</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=110</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Andrew's Anthem</t>
   </si>
   <si>
     <t>Animal Refuge Center, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5443</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Animal Refuge Center, Inc.</t>
   </si>
   <si>
     <t>Animal Welfare League of Charlotte County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1016</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Animal Welfare League of Charlotte County</t>
   </si>
   <si>
     <t>Area Agency on Aging for Southwest Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5448</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Area Agency on Aging for Southwest Florida, Inc.</t>
   </si>
   <si>
     <t>Armchair Anglers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1018</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Armchair Anglers</t>
   </si>
   <si>
     <t>ArtFest Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5143</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=ArtFest Fort Myers</t>
   </si>
   <si>
     <t>Artists Standing Strong Together</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=251</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Artists Standing Strong Together</t>
   </si>
   <si>
     <t>Arts Bonita</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=321</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Arts Bonita</t>
   </si>
   <si>
     <t>Arts for ACT Gallery</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5569</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Arts for ACT Gallery</t>
   </si>
   <si>
     <t>Asian Professionals Association of Southwest Florida, Inc. (APASWFL)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5577</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Asian Professionals Association of Southwest Florida, Inc. (APASWFL)</t>
   </si>
   <si>
     <t>Association of Women's Health, Obstetric and Neonatal Nurses</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=138</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Association of Women's Health, Obstetric and Neonatal Nurses</t>
   </si>
   <si>
     <t>Audubon's Corkscrew Swamp Sanctuary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=413</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Audubon's Corkscrew Swamp Sanctuary</t>
   </si>
   <si>
     <t>Autumn Briaja Giles 21 Life Foundation, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=930</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Autumn Briaja Giles 21 Life Foundation, Inc.</t>
   </si>
   <si>
     <t>Awaken Outreach Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=150</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Awaken Outreach Inc.</t>
   </si>
   <si>
     <t>Babcock Neighborhood Schools</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=420</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Babcock Neighborhood Schools</t>
   </si>
   <si>
     <t>Babcock Ranch Community Patrol</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=167</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Babcock Ranch Community Patrol</t>
   </si>
   <si>
     <t>Babcock Ranch Lifestyle Department</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=426</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Babcock Ranch Lifestyle Department</t>
   </si>
   <si>
     <t>Bailey-Matthews National Shell Museum &amp; Aquarium</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5167</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bailey-Matthews National Shell Museum &amp; Aquarium</t>
   </si>
   <si>
     <t>Baker Senior Center Naples</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5708</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Baker Senior Center Naples</t>
   </si>
   <si>
     <t>Bat Yam Temple of the Islands</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=187</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bat Yam Temple of the Islands</t>
   </si>
   <si>
     <t>Bay Oaks Park (The Town of Fort Myers Beach)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5318</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bay Oaks Park (The Town of Fort Myers Beach)</t>
   </si>
   <si>
     <t>Beach United Methodist Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=951</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Beach United Methodist Church</t>
   </si>
   <si>
     <t>BelieveNBooks, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5806</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=BelieveNBooks, Inc</t>
   </si>
   <si>
     <t>Best Buddies Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=190</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Best Buddies Southwest Florida</t>
   </si>
   <si>
     <t>Better Together</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=451</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Better Together</t>
   </si>
   <si>
     <t>Betty Allen Gynecologic Cancer Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=457</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Betty Allen Gynecologic Cancer Foundation</t>
   </si>
   <si>
     <t>Big Brothers Big Sisters of the Sun Coast</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=998</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Big Brothers Big Sisters of the Sun Coast</t>
   </si>
   <si>
     <t>Big Cypress National Preserve</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=205</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Big Cypress National Preserve</t>
   </si>
   <si>
     <t>Blessings in a Backpack</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=458</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Blessings in a Backpack</t>
   </si>
   <si>
     <t>Bonita Senior Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5220</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bonita Senior Center</t>
   </si>
   <si>
     <t>Bonita Springs Lions Club</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5873</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bonita Springs Lions Club</t>
   </si>
   <si>
     <t>Bonita Springs YMCA</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5875</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Bonita Springs YMCA</t>
   </si>
   <si>
     <t>BookBuddiesOnline</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=206</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=BookBuddiesOnline</t>
   </si>
   <si>
     <t>Boys &amp; Girls Club of Collier County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=212</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Boys &amp; Girls Club of Collier County</t>
   </si>
   <si>
     <t>Boys &amp; Girls Club of Lee County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=222</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Boys &amp; Girls Club of Lee County</t>
   </si>
   <si>
     <t>Brandywine Valley SPCA Dover</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5376</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Brandywine Valley SPCA Dover</t>
   </si>
   <si>
     <t>Brighter Bites</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=207</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Brighter Bites</t>
   </si>
   <si>
     <t>C.A.R.E.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5304</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=C.A.R.E.</t>
   </si>
   <si>
     <t>Cafe of Life, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5164</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cafe of Life, Inc.</t>
   </si>
   <si>
     <t>Calusa Nature Center and Planetarium</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=218</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Calusa Nature Center and Planetarium</t>
   </si>
   <si>
     <t>Calusa Waterkeeper</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5744</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Calusa Waterkeeper</t>
   </si>
   <si>
     <t>Campus Climate Corps (Intelligentsia International, Inc.)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5380</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Campus Climate Corps (Intelligentsia International, Inc.)</t>
   </si>
   <si>
     <t>Cancer Alliance Network</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1021</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cancer Alliance Network</t>
   </si>
   <si>
     <t>Candlelighters of SW Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1023</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Candlelighters of SW Florida, Inc.</t>
   </si>
   <si>
     <t>Cape Christian</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5233</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Christian</t>
   </si>
   <si>
     <t>Cape Coral Fire Department</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5899</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral Fire Department</t>
   </si>
   <si>
     <t>Cape Coral Friends of Wildlife</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=248</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral Friends of Wildlife</t>
   </si>
   <si>
     <t>Cape Coral High School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5130</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral High School</t>
   </si>
   <si>
     <t>Cape Coral Historical Museum</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=336</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral Historical Museum</t>
   </si>
   <si>
     <t>Cape Coral Rowing Club, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=282</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral Rowing Club, Inc</t>
   </si>
   <si>
     <t>Cape Coral Wildlife Trust</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=255</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Coral Wildlife Trust</t>
   </si>
   <si>
     <t>Cape Development Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=263</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cape Development Center</t>
   </si>
   <si>
     <t>Center for Independent Living Gulf Coast</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5168</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Center for Independent Living Gulf Coast</t>
   </si>
   <si>
     <t>Champions For Learning-The Education Foundation of Collier County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=267</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Champions For Learning-The Education Foundation of Collier County</t>
   </si>
   <si>
     <t>Charitable Foundation of the Islands</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=268</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charitable Foundation of the Islands</t>
   </si>
   <si>
     <t>Charities Funding Partnerships for America</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5398</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charities Funding Partnerships for America</t>
   </si>
   <si>
     <t>Charleston Park Neighborhood Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=274</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charleston Park Neighborhood Association</t>
   </si>
   <si>
     <t>Charlotte Behavioral Health Care (CBHC)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=275</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charlotte Behavioral Health Care (CBHC)</t>
   </si>
   <si>
     <t>Charlotte County Habitat for Humanity</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5593</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charlotte County Habitat for Humanity</t>
   </si>
   <si>
     <t>Charlotte Harbor Environmental Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=285</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charlotte Harbor Environmental Center</t>
   </si>
   <si>
     <t>Charlotte High School Boys Basketball</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5149</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Charlotte High School Boys Basketball</t>
   </si>
   <si>
     <t>Chasse Your Dreams, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=317</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Chasse Your Dreams, Inc</t>
   </si>
   <si>
     <t>Chatty Cafe USA</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=318</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Chatty Cafe USA</t>
   </si>
   <si>
     <t>Child Care of Southwest Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5178</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Child Care of Southwest Florida, Inc.</t>
   </si>
   <si>
     <t>Children's Home Society of Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5195</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Children's Home Society of Florida</t>
   </si>
   <si>
     <t>Christian Medical Ministries</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=295</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Christian Medical Ministries</t>
   </si>
   <si>
     <t>Church at The Springs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5229</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Church at The Springs</t>
   </si>
   <si>
     <t>Citizens' Climate Lobby - Port Charlotte</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5765</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Citizens' Climate Lobby - Port Charlotte</t>
   </si>
   <si>
     <t>City of Bonita Springs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5773</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=City of Bonita Springs</t>
   </si>
   <si>
     <t>City of Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5799</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=City of Fort Myers</t>
   </si>
   <si>
     <t>City of Punta Gorda</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=363</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=City of Punta Gorda</t>
   </si>
   <si>
     <t>City of Sanibel</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5191</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=City of Sanibel</t>
   </si>
   <si>
     <t>Clinic for the Rehabilitation of Wildlife (CROW)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=364</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Clinic for the Rehabilitation of Wildlife (CROW)</t>
   </si>
   <si>
     <t>Coccoloba Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=391</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Coccoloba Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
     <t>Collaboratory</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=445</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Collaboratory</t>
   </si>
   <si>
     <t>Collier County Museums</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5418</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Collier County Museums</t>
   </si>
   <si>
     <t>Collier County Parks and Recreation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5606</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Collier County Parks and Recreation</t>
   </si>
   <si>
     <t>Collier County Sheriff's Office</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=407</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Collier County Sheriff's Office</t>
   </si>
   <si>
     <t>Collier NOW</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5244</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Collier NOW</t>
   </si>
   <si>
     <t>Colonial Elementary School, A Community Partnership School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5270</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Colonial Elementary School, A Community Partnership School</t>
   </si>
   <si>
     <t>Community Cats of Bonita Springs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=459</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Community Cats of Bonita Springs</t>
   </si>
   <si>
     <t>Community Cooperative</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5841</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Community Cooperative</t>
   </si>
   <si>
     <t>Community Housing and Resources</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5859</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Community Housing and Resources</t>
   </si>
   <si>
     <t>Community Pregnancy Clinics</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5889</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Community Pregnancy Clinics</t>
   </si>
   <si>
     <t>Conservation Collier</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=472</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Conservation Collier</t>
   </si>
   <si>
     <t>Conversations to Remember</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5278</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Conversations to Remember</t>
   </si>
   <si>
     <t>Cornerstone Community Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5872</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cornerstone Community Foundation</t>
   </si>
   <si>
     <t>Creative Arts Charitable Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5857</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Creative Arts Charitable Foundation</t>
   </si>
   <si>
     <t>Crestwell Higher Learning School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=498</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Crestwell Higher Learning School</t>
   </si>
   <si>
     <t>CREW Land &amp; Water Trust</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5897</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=CREW Land &amp; Water Trust</t>
   </si>
   <si>
     <t>Cultivate Abundance, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5903</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cultivate Abundance, Inc.</t>
   </si>
   <si>
     <t>Cultural Heritage Center of Southwest Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5826</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cultural Heritage Center of Southwest Florida, Inc.</t>
   </si>
   <si>
     <t>Cultural Park Theatre Company, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5477</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cultural Park Theatre Company, Inc.</t>
   </si>
   <si>
     <t>Cypress Lake Hornets Elite</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5623</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cypress Lake Hornets Elite</t>
   </si>
   <si>
     <t>Cystic Fibrosis Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=484</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Cystic Fibrosis Foundation</t>
   </si>
   <si>
     <t>David Lawrence Mental Health Center, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5511</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=David Lawrence Mental Health Center, Inc.</t>
   </si>
   <si>
     <t>Defenders of Wildlife</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5235</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Defenders of Wildlife</t>
   </si>
   <si>
     <t>Delnor-Wiggins Pass State Park</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5253</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Delnor-Wiggins Pass State Park</t>
   </si>
   <si>
     <t>Democratic Party of Lee County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5370</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Democratic Party of Lee County</t>
   </si>
   <si>
     <t>DENDRITIC: Human-Centered AI and Data Science Institute</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5630</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=DENDRITIC: Human-Centered AI and Data Science Institute</t>
   </si>
   <si>
     <t>Dogs Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5643</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Dogs Inc.</t>
   </si>
   <si>
     <t>Dr. Piper Center for Social Services, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=512</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Dr. Piper Center for Social Services, Inc.</t>
   </si>
   <si>
     <t>Dress For Success SW Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5886</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Dress For Success SW Florida</t>
   </si>
   <si>
     <t>Drug Free Lee</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=545</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Drug Free Lee</t>
   </si>
   <si>
     <t>Dubin Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=520</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Dubin Center</t>
   </si>
   <si>
     <t>Dunbar High School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5381</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Dunbar High School</t>
   </si>
   <si>
     <t>Early Learning Coalition of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5393</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Early Learning Coalition of Southwest Florida</t>
   </si>
   <si>
     <t>East Lee Wildlife Stewardship Group</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5409</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=East Lee Wildlife Stewardship Group</t>
   </si>
   <si>
     <t>Easterseals Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=538</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Easterseals Florida</t>
   </si>
   <si>
     <t>ECHO Global Farm</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5652</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=ECHO Global Farm</t>
   </si>
   <si>
     <t>Edison &amp; Ford Winter Estates</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5430</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Edison &amp; Ford Winter Estates</t>
   </si>
   <si>
     <t>Edison Regional Science &amp; Inventors Fairs Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=579</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Edison Regional Science &amp; Inventors Fairs Inc.</t>
   </si>
   <si>
     <t>Edison Sailing Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5414</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Edison Sailing Center</t>
   </si>
   <si>
     <t>EHAS INC</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5667</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=EHAS INC</t>
   </si>
   <si>
     <t>Elks Lodge # 1288</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5881</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Elks Lodge # 1288</t>
   </si>
   <si>
     <t>Empowerment Farm</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5378</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Empowerment Farm</t>
   </si>
   <si>
     <t>EndlessBrain, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5400</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=EndlessBrain, Inc.</t>
   </si>
   <si>
     <t>Engage Estero</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5374</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Engage Estero</t>
   </si>
   <si>
     <t>Environmental Conservancy of North Port and Surrounding Areas</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5375</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Environmental Conservancy of North Port and Surrounding Areas</t>
   </si>
   <si>
     <t>Environmental Education Lee County Schools</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5408</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Environmental Education Lee County Schools</t>
   </si>
   <si>
     <t>Epilepsy Alliance Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=585</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Epilepsy Alliance Florida</t>
   </si>
   <si>
     <t>Estero Bay Aquatic Preserve</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5307</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Estero Bay Aquatic Preserve</t>
   </si>
   <si>
     <t>Estero Community Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=602</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Estero Community Church</t>
   </si>
   <si>
     <t>Estero Forever Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5874</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Estero Forever Foundation</t>
   </si>
   <si>
     <t>Estero Historical Society, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5407</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Estero Historical Society, Inc.</t>
   </si>
   <si>
     <t>Eva's Closet &amp; Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5342</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Eva's Closet &amp; Foundation</t>
   </si>
   <si>
     <t>F.I.S.H. of SanCap</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5730</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=F.I.S.H. of SanCap</t>
   </si>
   <si>
     <t>Fakahatchee Strand Preserve State Park</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=612</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Fakahatchee Strand Preserve State Park</t>
   </si>
   <si>
     <t>Family Connect</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=609</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Family Connect</t>
   </si>
   <si>
     <t>Family Initiative</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5814</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Family Initiative</t>
   </si>
   <si>
     <t>FDOT's Commute Connector</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5412</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FDOT's Commute Connector</t>
   </si>
   <si>
     <t>Feed My Starving Children</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=625</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Feed My Starving Children</t>
   </si>
   <si>
     <t>Feed Thy Neighbor, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=630</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Feed Thy Neighbor, Inc.</t>
   </si>
   <si>
     <t>FGCU - School of Resort &amp; Hospitality Management</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5354</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU - School of Resort &amp; Hospitality Management</t>
   </si>
   <si>
     <t>FGCU Accounting</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5870</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Accounting</t>
   </si>
   <si>
     <t>FGCU Adaptive Services</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5860</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Adaptive Services</t>
   </si>
   <si>
     <t>FGCU Admissions Enrollment Marketing &amp; Communications</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=669</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Admissions Enrollment Marketing &amp; Communications</t>
   </si>
   <si>
     <t>FGCU Alumni Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5913</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Alumni Association</t>
   </si>
   <si>
     <t>FGCU Athletics: Marketing</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=677</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Athletics: Marketing</t>
   </si>
   <si>
     <t>FGCU Campus Food Pantry</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=688</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Campus Food Pantry</t>
   </si>
   <si>
     <t>FGCU Career Development Services</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=685</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Career Development Services</t>
   </si>
   <si>
     <t>FGCU Center for Agribusiness</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5473</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Center for Agribusiness</t>
   </si>
   <si>
     <t>FGCU CERT - Community Emergency Response Team</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5499</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU CERT - Community Emergency Response Team</t>
   </si>
   <si>
     <t>FGCU Community Engagement &amp; Outreach</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=687</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Community Engagement &amp; Outreach</t>
   </si>
   <si>
     <t>FGCU Complete</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=934</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Complete</t>
   </si>
   <si>
     <t>FGCU Creamery</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=754</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Creamery</t>
   </si>
   <si>
     <t>FGCU Department of Justice Studies</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=701</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Department of Justice Studies</t>
   </si>
   <si>
     <t>FGCU Dining Services Sustainabilty</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5506</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Dining Services Sustainabilty</t>
   </si>
   <si>
     <t>FGCU Eagle Media</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5853</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Eagle Media</t>
   </si>
   <si>
     <t>FGCU Environmental Health &amp; Safety</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5372</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Environmental Health &amp; Safety</t>
   </si>
   <si>
     <t>FGCU Food Forest</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=716</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Food Forest</t>
   </si>
   <si>
     <t>FGCU Global Engagement Office</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=718</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Global Engagement Office</t>
   </si>
   <si>
     <t>FGCU Golisano Intellectual Developmental Disabilities Institute (GIDDI</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=811</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Golisano Intellectual Developmental Disabilities Institute (GIDDI</t>
   </si>
   <si>
     <t>FGCU Housing &amp; Residence Life</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5548</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Housing &amp; Residence Life</t>
   </si>
   <si>
     <t>FGCU Lutgert College of Business</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5792</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Lutgert College of Business</t>
   </si>
   <si>
     <t>FGCU Marieb College of Health &amp; Human Services Advising Office</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=722</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Marieb College of Health &amp; Human Services Advising Office</t>
   </si>
   <si>
     <t>FGCU Mentoring Programs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=729</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Mentoring Programs</t>
   </si>
   <si>
     <t>FGCU Multicultural &amp; Leadership Development Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=926</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Multicultural &amp; Leadership Development Center</t>
   </si>
   <si>
     <t>FGCU Office of Institutional Equity and Compliance</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5818</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Office of Institutional Equity and Compliance</t>
   </si>
   <si>
     <t>FGCU Office of Internships &amp; Cooperative Programs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=740</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Office of Internships &amp; Cooperative Programs</t>
   </si>
   <si>
     <t>FGCU Office of Scholarly Innovation and Student Research</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=742</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Office of Scholarly Innovation and Student Research</t>
   </si>
   <si>
     <t>FGCU Outreach Programs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5815</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Outreach Programs</t>
   </si>
   <si>
     <t>FGCU Physical Plant</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5882</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Physical Plant</t>
   </si>
   <si>
     <t>FGCU R.I.S.E. (Real Independence, Successful Employment)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5891</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU R.I.S.E. (Real Independence, Successful Employment)</t>
   </si>
   <si>
     <t>FGCU Roots of Compassion and Kindness Center (ROCK)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=757</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Roots of Compassion and Kindness Center (ROCK)</t>
   </si>
   <si>
     <t>FGCU Students &amp; Seniors (Dept. of Language &amp; Literature)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=776</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Students &amp; Seniors (Dept. of Language &amp; Literature)</t>
   </si>
   <si>
     <t>FGCU Sustainability</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5796</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Sustainability</t>
   </si>
   <si>
     <t>FGCU Transfer Admissions</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=768</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Transfer Admissions</t>
   </si>
   <si>
     <t>FGCU University Colloquium</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=779</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU University Colloquium</t>
   </si>
   <si>
     <t>FGCU University Recreation and Wellness</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=780</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU University Recreation and Wellness</t>
   </si>
   <si>
     <t>FGCU Whitaker Center for STEM Education</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=782</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU Whitaker Center for STEM Education</t>
   </si>
   <si>
     <t>FGCU’s Wings of Hope</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=790</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FGCU’s Wings of Hope</t>
   </si>
   <si>
     <t>First Baptist Church of Moore Haven</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=792</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=First Baptist Church of Moore Haven</t>
   </si>
   <si>
     <t>FIRST LEGO League Robotics</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=799</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FIRST LEGO League Robotics</t>
   </si>
   <si>
     <t>First Slavic Pentecostal Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5876</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=First Slavic Pentecostal Church</t>
   </si>
   <si>
     <t>FIRST Tech Challenge Robotics</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5811</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FIRST Tech Challenge Robotics</t>
   </si>
   <si>
     <t>First United Methodist Church of Bonita Springs</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5888</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=First United Methodist Church of Bonita Springs</t>
   </si>
   <si>
     <t>Fish With a Hero, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5821</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Fish With a Hero, Inc.</t>
   </si>
   <si>
     <t>FITMIX FEST, INC</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5822</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FITMIX FEST, INC</t>
   </si>
   <si>
     <t>Florida Cancer Specialists Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=810</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Cancer Specialists Foundation</t>
   </si>
   <si>
     <t>Florida Conservation Corps</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5838</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Conservation Corps</t>
   </si>
   <si>
     <t>Florida Department of Environmental Protection - South District</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=815</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Department of Environmental Protection - South District</t>
   </si>
   <si>
     <t>Florida Department of Health</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=816</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Department of Health</t>
   </si>
   <si>
     <t>Florida Engineering Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=822</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Engineering Foundation</t>
   </si>
   <si>
     <t>Florida Gulf Coast University, Ornithology Research Lab</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=825</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Gulf Coast University, Ornithology Research Lab</t>
   </si>
   <si>
     <t>Florida Lions Eye Clinic</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5869</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Lions Eye Clinic</t>
   </si>
   <si>
     <t>Florida Native Butterfly Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5893</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Native Butterfly Society</t>
   </si>
   <si>
     <t>Florida Park Service</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5884</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Park Service</t>
   </si>
   <si>
     <t>Florida Repertory Theatre</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=828</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Repertory Theatre</t>
   </si>
   <si>
     <t>Florida Right to Clean Water</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5902</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Right to Clean Water</t>
   </si>
   <si>
     <t>Florida Science Olympiad</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=830</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Science Olympiad</t>
   </si>
   <si>
     <t>Florida Storytelling Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=839</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Florida Storytelling Association</t>
   </si>
   <si>
     <t>FMB Revival Corp</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=846</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=FMB Revival Corp</t>
   </si>
   <si>
     <t>Fort Myers Middle Academy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5308</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Fort Myers Middle Academy</t>
   </si>
   <si>
     <t>Fostering Success</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=854</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Fostering Success</t>
   </si>
   <si>
     <t>Franklin Park Elementary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=857</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Franklin Park Elementary</t>
   </si>
   <si>
     <t>Freedom Waters Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=867</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Freedom Waters Foundation</t>
   </si>
   <si>
     <t>Friends of Bonita Estero Rail Trail</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=872</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Friends of Bonita Estero Rail Trail</t>
   </si>
   <si>
     <t>Friends of EBO</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=878</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Friends of EBO</t>
   </si>
   <si>
     <t>Friends of the Florida Jr Blades Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=888</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Friends of the Florida Jr Blades Inc.</t>
   </si>
   <si>
     <t>fStop Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=897</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=fStop Foundation</t>
   </si>
   <si>
     <t>Fun Time Early Childhood Academy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5819</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Fun Time Early Childhood Academy</t>
   </si>
   <si>
     <t>Future Citizens, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5565</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Future Citizens, Inc.</t>
   </si>
   <si>
     <t>Future Forestry Corporation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5359</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Future Forestry Corporation</t>
   </si>
   <si>
     <t>Garden of Eatin'</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5399</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Garden of Eatin'</t>
   </si>
   <si>
     <t>Gargiulo Education Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5830</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gargiulo Education Center</t>
   </si>
   <si>
     <t>Gateway High School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5831</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gateway High School</t>
   </si>
   <si>
     <t>Gateway Trinity Lutheran Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5851</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gateway Trinity Lutheran Church</t>
   </si>
   <si>
     <t>Gemstones in the Making</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5813</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gemstones in the Making</t>
   </si>
   <si>
     <t>GFWC LaBelle Community Woman's Club</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5852</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=GFWC LaBelle Community Woman's Club</t>
   </si>
   <si>
     <t>Gift of Life Marrow Registry</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=924</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gift of Life Marrow Registry</t>
   </si>
   <si>
     <t>GiGi's Playhouse Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=931</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=GiGi's Playhouse Fort Myers</t>
   </si>
   <si>
     <t>Girls on the Run of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5843</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Girls on the Run of Southwest Florida</t>
   </si>
   <si>
     <t>Gladiolus Food Pantry Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5840</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gladiolus Food Pantry Inc.</t>
   </si>
   <si>
     <t>Global Brigades - Medical</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=944</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Global Brigades - Medical</t>
   </si>
   <si>
     <t>Golden Retriever Rescue of Mid Florida, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=937</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Golden Retriever Rescue of Mid Florida, Inc</t>
   </si>
   <si>
     <t>Golden Retriever Rescue of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5844</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Golden Retriever Rescue of Southwest Florida</t>
   </si>
   <si>
     <t>Golisano Children's Hospital - Child Advocacy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5904</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Golisano Children's Hospital - Child Advocacy</t>
   </si>
   <si>
     <t>Golisano Children's Hospital/Children's Miracle Network</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=953</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Golisano Children's Hospital/Children's Miracle Network</t>
   </si>
   <si>
     <t>Golisano Children's Museum of Naples (C'mon)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=957</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Golisano Children's Museum of Naples (C'mon)</t>
   </si>
   <si>
     <t>Goodwill Industries of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5879</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Goodwill Industries of Southwest Florida</t>
   </si>
   <si>
     <t>Grace Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5180</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Grace Church</t>
   </si>
   <si>
     <t>Grace Classical Academy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=976</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Grace Classical Academy</t>
   </si>
   <si>
     <t>Grace Place for Children and Families</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=965</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Grace Place for Children and Families</t>
   </si>
   <si>
     <t>Greater Estero Chamber of Commerce</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=967</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Greater Estero Chamber of Commerce</t>
   </si>
   <si>
     <t>Greater Fort Myers Chamber of Commerce</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=982</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Greater Fort Myers Chamber of Commerce</t>
   </si>
   <si>
     <t>Greater Pine Island Alliance</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5837</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Greater Pine Island Alliance</t>
   </si>
   <si>
     <t>Grounding Wire Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5878</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Grounding Wire Inc</t>
   </si>
   <si>
     <t>Guadalupe Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=986</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Guadalupe Center</t>
   </si>
   <si>
     <t>Guadalupe Social Services Catholic Charities Diocese of Venice, FL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5192</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Guadalupe Social Services Catholic Charities Diocese of Venice, FL</t>
   </si>
   <si>
     <t>Guardian Angels for Special Populations</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=990</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Guardian Angels for Special Populations</t>
   </si>
   <si>
     <t>Guardians of Florida Animal Rescue, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5214</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Guardians of Florida Animal Rescue, Inc</t>
   </si>
   <si>
     <t>Gulf Coast Humane Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5832</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulf Coast Humane Society</t>
   </si>
   <si>
     <t>Gulf Coast Symphony</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5868</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulf Coast Symphony</t>
   </si>
   <si>
     <t>Gulf Coast Village</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1007</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulf Coast Village</t>
   </si>
   <si>
     <t>Gulfshore Ballet</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5887</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulfshore Ballet</t>
   </si>
   <si>
     <t>Gulfshore Opera</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=1009</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulfshore Opera</t>
   </si>
   <si>
     <t>Gulfshore Playhouse</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2027</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulfshore Playhouse</t>
   </si>
   <si>
     <t>Gulfside Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5892</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Gulfside Church</t>
   </si>
   <si>
     <t>Habitat for Humanity of Collier County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5894</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Habitat for Humanity of Collier County</t>
   </si>
   <si>
     <t>Habitat for Humanity of Lee and Hendry Counties</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5224</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Habitat for Humanity of Lee and Hendry Counties</t>
   </si>
   <si>
     <t>Haiti Education Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5901</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Haiti Education Center</t>
   </si>
   <si>
     <t>Hancock Creek Elementary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2040</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hancock Creek Elementary</t>
   </si>
   <si>
     <t>Harry Chapin Food Bank</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2066</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Harry Chapin Food Bank</t>
   </si>
   <si>
     <t>Haven on Earth Animal League</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2047</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Haven on Earth Animal League</t>
   </si>
   <si>
     <t>Health Planning Council of SWFL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2118</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Health Planning Council of SWFL</t>
   </si>
   <si>
     <t>Healthcare Network</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5251</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Healthcare Network</t>
   </si>
   <si>
     <t>Healthy Living United Center, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2048</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Healthy Living United Center, Inc.</t>
   </si>
   <si>
     <t>Healthy Start Coalition of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2049</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Healthy Start Coalition of Southwest Florida</t>
   </si>
   <si>
     <t>Hearts &amp; Homes for Veterans, Inc. (HHV)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2050</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hearts &amp; Homes for Veterans, Inc. (HHV)</t>
   </si>
   <si>
     <t>Heather l Folmar</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2055</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Heather l Folmar</t>
   </si>
   <si>
     <t>Help A Diabetic Child, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2063</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Help A Diabetic Child, Inc</t>
   </si>
   <si>
     <t>Helps Outreach Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2068</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Helps Outreach Inc.</t>
   </si>
   <si>
     <t>Heroes on the Water</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2069</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Heroes on the Water</t>
   </si>
   <si>
     <t>Hispanic Vote of SWFL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5463</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hispanic Vote of SWFL</t>
   </si>
   <si>
     <t>Home Base Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2087</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Home Base Florida</t>
   </si>
   <si>
     <t>Hope Clubhouse</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5737</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hope Clubhouse</t>
   </si>
   <si>
     <t>Hope for Haiti</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2084</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hope for Haiti</t>
   </si>
   <si>
     <t>Hope Healthcare</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2090</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hope Healthcare</t>
   </si>
   <si>
     <t>Hope Lutheran Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5789</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Hope Lutheran Church</t>
   </si>
   <si>
     <t>Housing Authority of the City of Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2095</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Housing Authority of the City of Fort Myers</t>
   </si>
   <si>
     <t>HR COLLIER</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5151</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=HR COLLIER</t>
   </si>
   <si>
     <t>Humane Society Naples</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2098</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Humane Society Naples</t>
   </si>
   <si>
     <t>I Will Mentorship Foundation (IWMF)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2102</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=I Will Mentorship Foundation (IWMF)</t>
   </si>
   <si>
     <t>Iglesia Rey de Justicia</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5748</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Iglesia Rey de Justicia</t>
   </si>
   <si>
     <t>IMAG History &amp; Science Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5766</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=IMAG History &amp; Science Center</t>
   </si>
   <si>
     <t>ImpactNow Foundation Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2104</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=ImpactNow Foundation Inc.</t>
   </si>
   <si>
     <t>Independent Butterflies Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5726</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Independent Butterflies Inc.</t>
   </si>
   <si>
     <t>India Association of Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2107</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=India Association of Fort Myers</t>
   </si>
   <si>
     <t>Indian River County Cattlewomen, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=3121</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Indian River County Cattlewomen, Inc.</t>
   </si>
   <si>
     <t>InsideOut Social Skills 4 Youth</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=4121</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=InsideOut Social Skills 4 Youth</t>
   </si>
   <si>
     <t>Interfaith Charities of South Lee, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2112</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Interfaith Charities of South Lee, Inc.</t>
   </si>
   <si>
     <t>Intermezzo Choir of the Fort Myers Symphonic Mastersingers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2115</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Intermezzo Choir of the Fort Myers Symphonic Mastersingers</t>
   </si>
   <si>
     <t>International Network of Creatives. Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5735</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=International Network of Creatives. Inc.</t>
   </si>
   <si>
     <t>Iona House Corporation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=2121</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Iona House Corporation</t>
   </si>
   <si>
     <t>Isaac Walton League of America- Cypress Chapter</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=4128</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Isaac Walton League of America- Cypress Chapter</t>
   </si>
   <si>
     <t>Island Park High School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5727</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Island Park High School</t>
   </si>
   <si>
     <t>J.N Ding Darling National Wildlife Refuge</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5132</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=J.N Ding Darling National Wildlife Refuge</t>
   </si>
   <si>
     <t>James Stephens Elementary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5133</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=James Stephens Elementary</t>
   </si>
   <si>
     <t>Joshua Molandes Campaign</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5135</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Joshua Molandes Campaign</t>
   </si>
   <si>
     <t>Junior Achievement of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5146</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Junior Achievement of Southwest Florida</t>
   </si>
   <si>
     <t>Keep Charlotte Beautiful</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5138</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Keep Charlotte Beautiful</t>
   </si>
   <si>
     <t>Keep Collier Beautiful</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5152</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Keep Collier Beautiful</t>
   </si>
   <si>
     <t>Keep Lee County Beautiful, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5524</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Keep Lee County Beautiful, Inc.</t>
   </si>
   <si>
     <t>Keep Pinellas Beautiful</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5720</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Keep Pinellas Beautiful</t>
   </si>
   <si>
     <t>Kimmie's Recovery Zone</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5144</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Kimmie's Recovery Zone</t>
   </si>
   <si>
     <t>Kiwanis Club of Cape Coral</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5159</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Kiwanis Club of Cape Coral</t>
   </si>
   <si>
     <t>Koreshan State Park</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5163</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Koreshan State Park</t>
   </si>
   <si>
     <t>LaBelle Downtown Revitalization Corporation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5196</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=LaBelle Downtown Revitalization Corporation</t>
   </si>
   <si>
     <t>Lake Aurora Christian Camp</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5197</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lake Aurora Christian Camp</t>
   </si>
   <si>
     <t>Lamb of God Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5454</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lamb of God Church</t>
   </si>
   <si>
     <t>LARC, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5179</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=LARC, Inc.</t>
   </si>
   <si>
     <t>Laurel Oak Elementary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5745</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Laurel Oak Elementary</t>
   </si>
   <si>
     <t>League of Women Voters of Lee County, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5193</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=League of Women Voters of Lee County, Inc.</t>
   </si>
   <si>
     <t>League of Women Voters Sanibel</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5198</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=League of Women Voters Sanibel</t>
   </si>
   <si>
     <t>Learning Ally</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5695</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Learning Ally</t>
   </si>
   <si>
     <t>Lee BIA Builder's Care</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5701</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee BIA Builder's Care</t>
   </si>
   <si>
     <t>Lee County Black History Society, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5505</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Black History Society, Inc.</t>
   </si>
   <si>
     <t>Lee County Community Tennis Association (LCCTA)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5507</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Community Tennis Association (LCCTA)</t>
   </si>
   <si>
     <t>Lee County Domestic Animal Services</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5201</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Domestic Animal Services</t>
   </si>
   <si>
     <t>Lee County Homeless Coalition</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5204</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Homeless Coalition</t>
   </si>
   <si>
     <t>Lee County Jewish Federation, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5206</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Jewish Federation, Inc.</t>
   </si>
   <si>
     <t>Lee County Mosquito Education</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5207</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Mosquito Education</t>
   </si>
   <si>
     <t>Lee County Parks &amp; Recreation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5208</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Parks &amp; Recreation</t>
   </si>
   <si>
     <t>Lee County Republican Executive Committee</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5210</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Republican Executive Committee</t>
   </si>
   <si>
     <t>Lee County Visitor &amp; Convention Bureau</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5211</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee County Visitor &amp; Convention Bureau</t>
   </si>
   <si>
     <t>Lee Health</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5227</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee Health</t>
   </si>
   <si>
     <t>Lee Health Healthy Life Center at Coconut Point Mall</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5213</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee Health Healthy Life Center at Coconut Point Mall</t>
   </si>
   <si>
     <t>Lee Health Medical Libraries</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5216</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee Health Medical Libraries</t>
   </si>
   <si>
     <t>Lee Health Safe Kids Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5215</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lee Health Safe Kids Southwest Florida</t>
   </si>
   <si>
     <t>Lehigh Acres Middle School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5240</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lehigh Acres Middle School</t>
   </si>
   <si>
     <t>Lifeline Family Center, Inc. dba Thrive SWFL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5242</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lifeline Family Center, Inc. dba Thrive SWFL</t>
   </si>
   <si>
     <t>Lighthouse of Collier, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5217</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lighthouse of Collier, Inc.</t>
   </si>
   <si>
     <t>Literacy Council Gulf Coast</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5455</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Literacy Council Gulf Coast</t>
   </si>
   <si>
     <t>Literacy Volunteers of Collier County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5653</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Literacy Volunteers of Collier County</t>
   </si>
   <si>
     <t>Little Pink Houses of Hope</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5219</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Little Pink Houses of Hope</t>
   </si>
   <si>
     <t>Live Your Strength</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5225</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Live Your Strength</t>
   </si>
   <si>
     <t>Living Word Christian Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5256</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Living Word Christian Center</t>
   </si>
   <si>
     <t>Livres Pour Le Monde - Books for the World</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5230</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Livres Pour Le Monde - Books for the World</t>
   </si>
   <si>
     <t>Love INC of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5271</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Love INC of Southwest Florida</t>
   </si>
   <si>
     <t>Lovers Key State Park</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5669</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lovers Key State Park</t>
   </si>
   <si>
     <t>Lutheran Services Florida - CINS/FINS</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5447</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lutheran Services Florida - CINS/FINS</t>
   </si>
   <si>
     <t>Lutheran Services Florida - Refugee Program</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5239</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Lutheran Services Florida - Refugee Program</t>
   </si>
   <si>
     <t>Macias Wildlife Society of Bonita Bay, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5241</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Macias Wildlife Society of Bonita Bay, Inc.</t>
   </si>
   <si>
     <t>Make-A-Wish Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5243</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Make-A-Wish Foundation</t>
   </si>
   <si>
     <t>Make-A-Wish Southern Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5279</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Make-A-Wish Southern Florida, Inc.</t>
   </si>
   <si>
     <t>Manasota Youth Soccer League</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5245</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Manasota Youth Soccer League</t>
   </si>
   <si>
     <t>March of Dimes - SWFL</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5247</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=March of Dimes - SWFL</t>
   </si>
   <si>
     <t>McGregor Baptist Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5402</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=McGregor Baptist Church</t>
   </si>
   <si>
     <t>McGregor Clinic, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5437</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=McGregor Clinic, Inc.</t>
   </si>
   <si>
     <t>Meals of Hope</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5482</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Meals of Hope</t>
   </si>
   <si>
     <t>Melanoma Research Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5248</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Melanoma Research Foundation</t>
   </si>
   <si>
     <t>Metropolitan Ministries</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5250</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Metropolitan Ministries</t>
   </si>
   <si>
     <t>Midwest Food Bank, Florida Division</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5533</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Midwest Food Bank, Florida Division</t>
   </si>
   <si>
     <t>Miracle Limbs-Courage in Motion</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5255</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Miracle Limbs-Courage in Motion</t>
   </si>
   <si>
     <t>Mobile School Pantry</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5385</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Mobile School Pantry</t>
   </si>
   <si>
     <t>Montessori Academy of Naples</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5436</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Montessori Academy of Naples</t>
   </si>
   <si>
     <t>Moorings Park Retirement Community</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5534</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Moorings Park Retirement Community</t>
   </si>
   <si>
     <t>Mothers Against Drunk Driving</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5665</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Mothers Against Drunk Driving</t>
   </si>
   <si>
     <t>Mound House</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5258</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Mound House</t>
   </si>
   <si>
     <t>Mr. Lucky Dog’s Sanctuary, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5260</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Mr. Lucky Dog’s Sanctuary, Inc</t>
   </si>
   <si>
     <t>Multiple Sclerosis Center of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5262</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Multiple Sclerosis Center of Southwest Florida</t>
   </si>
   <si>
     <t>Muscular Dystrophy Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5263</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Muscular Dystrophy Association</t>
   </si>
   <si>
     <t>My Autism Connection, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5261</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=My Autism Connection, Inc.</t>
   </si>
   <si>
     <t>NAMI National Alliance on Mental Illness - Sarah Ann Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5264</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=NAMI National Alliance on Mental Illness - Sarah Ann Center</t>
   </si>
   <si>
     <t>Naples Art Association, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5440</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Art Association, Inc</t>
   </si>
   <si>
     <t>Naples Botanical Garden</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5265</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Botanical Garden</t>
   </si>
   <si>
     <t>Naples Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5266</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
     <t>Naples Fort Myers Acapella SPEBSQSA Singers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5269</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Fort Myers Acapella SPEBSQSA Singers</t>
   </si>
   <si>
     <t>Naples Pathways Coalition</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5267</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Pathways Coalition</t>
   </si>
   <si>
     <t>Naples Preserve</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5268</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Preserve</t>
   </si>
   <si>
     <t>Naples Pride, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5383</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Pride, Inc.</t>
   </si>
   <si>
     <t>Naples Senior Center at JFCS</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5644</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Senior Center at JFCS</t>
   </si>
   <si>
     <t>Naples Therapeutic Riding Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5651</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Therapeutic Riding Center</t>
   </si>
   <si>
     <t>Naples Zoo</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5272</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Naples Zoo</t>
   </si>
   <si>
     <t>Nate Edwards Annual Fishing Tournament, INC</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5438</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Nate Edwards Annual Fishing Tournament, INC</t>
   </si>
   <si>
     <t>Nathaniel's Hope Buddy Break Naples</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5460</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Nathaniel's Hope Buddy Break Naples</t>
   </si>
   <si>
     <t>National Alliance On Mental Illness</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5273</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=National Alliance On Mental Illness</t>
   </si>
   <si>
     <t>National Association of Professionals in Sleep Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5274</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=National Association of Professionals in Sleep Foundation</t>
   </si>
   <si>
     <t>NCH Healthcare System</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5275</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=NCH Healthcare System</t>
   </si>
   <si>
     <t>Neighbors Network of Lee County, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5277</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Neighbors Network of Lee County, Inc.</t>
   </si>
   <si>
     <t>New Apostolic Faith Grace Ministries Incorporated</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5357</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=New Apostolic Faith Grace Ministries Incorporated</t>
   </si>
   <si>
     <t>New Horizons of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5280</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=New Horizons of Southwest Florida</t>
   </si>
   <si>
     <t>New Life Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5281</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=New Life Church</t>
   </si>
   <si>
     <t>North American Hazardous Materials Management Association NAHMMA</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5282</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=North American Hazardous Materials Management Association NAHMMA</t>
   </si>
   <si>
     <t>Oak Hammock Middle School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5388</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Oak Hammock Middle School</t>
   </si>
   <si>
     <t>Oak River Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5397</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Oak River Church</t>
   </si>
   <si>
     <t>Oasis Elementary North</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5415</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Oasis Elementary North</t>
   </si>
   <si>
     <t>Ocean Blue Project</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5422</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Ocean Blue Project</t>
   </si>
   <si>
     <t>Ocean Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5738</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Ocean Church</t>
   </si>
   <si>
     <t>Oikos Food Buyer's Club</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5404</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Oikos Food Buyer's Club</t>
   </si>
   <si>
     <t>One Way Out Ministries Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5655</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=One Way Out Ministries Inc.</t>
   </si>
   <si>
     <t>Our Mother's Home</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5656</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Our Mother's Home</t>
   </si>
   <si>
     <t>Pace Center for Girls, Inc. of Lee County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5671</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Pace Center for Girls, Inc. of Lee County</t>
   </si>
   <si>
     <t>Paradise Coast Sports Complex</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5705</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Paradise Coast Sports Complex</t>
   </si>
   <si>
     <t>Parkinson Association of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5413</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Parkinson Association of Southwest Florida</t>
   </si>
   <si>
     <t>Pathways Early Education Center of Immokalee</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5433</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Pathways Early Education Center of Immokalee</t>
   </si>
   <si>
     <t>Pathways to Opportunity</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5435</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Pathways to Opportunity</t>
   </si>
   <si>
     <t>Patty's Place Concierge Youth Mental Health Care (Collaboratory)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5625</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Patty's Place Concierge Youth Mental Health Care (Collaboratory)</t>
   </si>
   <si>
     <t>Paws Crossed Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5635</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Paws Crossed Inc.</t>
   </si>
   <si>
     <t>Peace River Botanical &amp; Sculpture Gardens, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5444</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Peace River Botanical &amp; Sculpture Gardens, Inc</t>
   </si>
   <si>
     <t>Pine Island Community Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5478</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Pine Island Community Church</t>
   </si>
   <si>
     <t>Pine Manor Improvement Association</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5344</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Pine Manor Improvement Association</t>
   </si>
   <si>
     <t>Premier mobile health services</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5345</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Premier mobile health services</t>
   </si>
   <si>
     <t>Project Build SWFL, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5348</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Project Build SWFL, Inc.</t>
   </si>
   <si>
     <t>Project Church Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5349</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Project Church Inc</t>
   </si>
   <si>
     <t>Protected Harbor</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5350</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Protected Harbor</t>
   </si>
   <si>
     <t>Providence Family Life Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5351</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Providence Family Life Center</t>
   </si>
   <si>
     <t>Punta Gorda Housing Authority</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5452</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Punta Gorda Housing Authority</t>
   </si>
   <si>
     <t>Quality Life Center of Southwest Florida, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5439</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Quality Life Center of Southwest Florida, Inc.</t>
   </si>
   <si>
     <t>Rayma C. Page Elementary</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5445</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rayma C. Page Elementary</t>
   </si>
   <si>
     <t>Redlands Christian Migrant Association (RCMA)</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5446</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Redlands Christian Migrant Association (RCMA)</t>
   </si>
   <si>
     <t>Reflective Spaces Ministry</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5449</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Reflective Spaces Ministry</t>
   </si>
   <si>
     <t>Revs Institute</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5457</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Revs Institute</t>
   </si>
   <si>
     <t>Richard M. Schulze Family Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5458</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Richard M. Schulze Family Foundation</t>
   </si>
   <si>
     <t>Rock The Ocean Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5584</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rock The Ocean Foundation</t>
   </si>
   <si>
     <t>Rookery Bay National Estuarine Research Reserve</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5464</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rookery Bay National Estuarine Research Reserve</t>
   </si>
   <si>
     <t>Rotary Club of Estero</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5487</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rotary Club of Estero</t>
   </si>
   <si>
     <t>Rotary Club of Fort Myers-Sunrise, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5742</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rotary Club of Fort Myers-Sunrise, Inc</t>
   </si>
   <si>
     <t>Rotary Club of Immokalee</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5468</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rotary Club of Immokalee</t>
   </si>
   <si>
     <t>Rotary Park Environmental Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5512</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Rotary Park Environmental Center</t>
   </si>
   <si>
     <t>Sally J. Pimentel Deaf and Hard of Hearing Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5600</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Sally J. Pimentel Deaf and Hard of Hearing Center</t>
   </si>
   <si>
     <t>San Carlos Park Elementary School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5597</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=San Carlos Park Elementary School</t>
   </si>
   <si>
     <t>Sanibel Captiva Shell Club</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5467</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Sanibel Captiva Shell Club</t>
   </si>
   <si>
     <t>Sanibel Community Association, The Community House</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5486</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Sanibel Community Association, The Community House</t>
   </si>
   <si>
     <t>Santa Life Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5491</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Santa Life Foundation</t>
   </si>
   <si>
     <t>Saving Our Democracy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5640</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Saving Our Democracy</t>
   </si>
   <si>
     <t>Saving Sage Animal Rescue Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5522</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Saving Sage Animal Rescue Foundation</t>
   </si>
   <si>
     <t>SCORE NAPLES</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5469</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SCORE NAPLES</t>
   </si>
   <si>
     <t>Senior Paws Sanctuary Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5470</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Senior Paws Sanctuary Inc</t>
   </si>
   <si>
     <t>Shadow Wood Charitable Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5619</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Shadow Wood Charitable Foundation</t>
   </si>
   <si>
     <t>Shady Rest Institute on Positive Aging</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5728</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Shady Rest Institute on Positive Aging</t>
   </si>
   <si>
     <t>Shell Point Retirement Community</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5729</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Shell Point Retirement Community</t>
   </si>
   <si>
     <t>Shelter for Abused Women and Children</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5684</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Shelter for Abused Women and Children</t>
   </si>
   <si>
     <t>Shy Wolf Sanctuary, Education, &amp; Experience Center, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5689</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Shy Wolf Sanctuary, Education, &amp; Experience Center, Inc.</t>
   </si>
   <si>
     <t>Sidney and Berne Davis Art Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5692</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Sidney and Berne Davis Art Center</t>
   </si>
   <si>
     <t>Sierra Club FL Chapter</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5697</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Sierra Club FL Chapter</t>
   </si>
   <si>
     <t>Single Dads Outreach, Corp</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5703</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Single Dads Outreach, Corp</t>
   </si>
   <si>
     <t>Skyline Elementary School PTO</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5712</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Skyline Elementary School PTO</t>
   </si>
   <si>
     <t>SNIP Collier</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5734</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SNIP Collier</t>
   </si>
   <si>
     <t>SOS Children's Village</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5716</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SOS Children's Village</t>
   </si>
   <si>
     <t>Source Of Light &amp; Hope Development Center, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5724</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Source Of Light &amp; Hope Development Center, Inc.</t>
   </si>
   <si>
     <t>South West Florida Horse Rescue, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5723</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=South West Florida Horse Rescue, Inc.</t>
   </si>
   <si>
     <t>Southern Fresh Urban Farm Collective</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5736</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Southern Fresh Urban Farm Collective</t>
   </si>
   <si>
     <t>Southwest Florida Association of Environmental Professionals</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5740</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Southwest Florida Association of Environmental Professionals</t>
   </si>
   <si>
     <t>Southwest Florida Community Prayer Breakfast, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5850</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Southwest Florida Community Prayer Breakfast, Inc.</t>
   </si>
   <si>
     <t>Southwest Florida Historical Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5373</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Southwest Florida Historical Society</t>
   </si>
   <si>
     <t>Southwest Florida Library Network</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5566</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Southwest Florida Library Network</t>
   </si>
   <si>
     <t>Special Equestrians</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5442</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Special Equestrians</t>
   </si>
   <si>
     <t>Special Olympics Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5451</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Special Olympics Florida</t>
   </si>
   <si>
     <t>St John's Thrift Shoppe</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5479</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=St John's Thrift Shoppe</t>
   </si>
   <si>
     <t>St. Matthew's House</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5394</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=St. Matthew's House</t>
   </si>
   <si>
     <t>St. Petersburg Catholic High School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5521</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=St. Petersburg Catholic High School</t>
   </si>
   <si>
     <t>STARability Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5567</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=STARability Foundation</t>
   </si>
   <si>
     <t>STEMLab</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5531</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=STEMLab</t>
   </si>
   <si>
     <t>Storm Drain Protection Act Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5646</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Storm Drain Protection Act Inc.</t>
   </si>
   <si>
     <t>Student Conduct, Florida Gulf Coast University</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5519</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Student Conduct, Florida Gulf Coast University</t>
   </si>
   <si>
     <t>Student/Farmworker Alliance</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5609</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Student/Farmworker Alliance</t>
   </si>
   <si>
     <t>Summit Christian School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5576</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Summit Christian School</t>
   </si>
   <si>
     <t>Suncoast Primate Sanctuary Foundation Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5719</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Suncoast Primate Sanctuary Foundation Inc</t>
   </si>
   <si>
     <t>SunCoast Venture Forge</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5632</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SunCoast Venture Forge</t>
   </si>
   <si>
     <t>SWFL Coalition Against Human Trafficking</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5604</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SWFL Coalition Against Human Trafficking</t>
   </si>
   <si>
     <t>SWFL Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5563</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SWFL Inc.</t>
   </si>
   <si>
     <t>SWFL RESET Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5608</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=SWFL RESET Center</t>
   </si>
   <si>
     <t>Taste the Impact</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5550</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Taste the Impact</t>
   </si>
   <si>
     <t>TEDxPunta Gorda</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5601</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=TEDxPunta Gorda</t>
   </si>
   <si>
     <t>Temple Beth El</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5615</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Temple Beth El</t>
   </si>
   <si>
     <t>The Belle Theatre, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5554</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Belle Theatre, Inc</t>
   </si>
   <si>
     <t>The Channel United Methodist Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5607</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Channel United Methodist Church</t>
   </si>
   <si>
     <t>The Children's Advocacy Center of SWFL Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5624</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Children's Advocacy Center of SWFL Inc</t>
   </si>
   <si>
     <t>The Coccoloba Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5571</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Coccoloba Chapter of the Florida Native Plant Society</t>
   </si>
   <si>
     <t>The Community, ELCA Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5605</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Community, ELCA Inc.</t>
   </si>
   <si>
     <t>The Conservancy of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5762</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Conservancy of Southwest Florida</t>
   </si>
   <si>
     <t>The Faith Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5579</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Faith Center</t>
   </si>
   <si>
     <t>The Foundation for Lee County Public Schools</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5657</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Foundation for Lee County Public Schools</t>
   </si>
   <si>
     <t>The Grateful Veteran</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5588</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Grateful Veteran</t>
   </si>
   <si>
     <t>The Halo Project of Southwest Florida Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5589</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Halo Project of Southwest Florida Inc.</t>
   </si>
   <si>
     <t>The Healthy Earth Organization</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5622</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Healthy Earth Organization</t>
   </si>
   <si>
     <t>The Heights Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5680</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Heights Center</t>
   </si>
   <si>
     <t>The Imagine Initiative</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5687</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Imagine Initiative</t>
   </si>
   <si>
     <t>The Immokalee Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5590</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Immokalee Foundation</t>
   </si>
   <si>
     <t>The Journey Home</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5672</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Journey Home</t>
   </si>
   <si>
     <t>The JOY FM</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5591</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The JOY FM</t>
   </si>
   <si>
     <t>The Lodge at Cypress Cove</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5598</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Lodge at Cypress Cove</t>
   </si>
   <si>
     <t>The MVP Autism Foundation Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5654</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The MVP Autism Foundation Inc</t>
   </si>
   <si>
     <t>The Naples Players</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5621</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Naples Players</t>
   </si>
   <si>
     <t>The Preserve</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5628</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Preserve</t>
   </si>
   <si>
     <t>The Rotary Club of Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5760</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Rotary Club of Fort Myers</t>
   </si>
   <si>
     <t>The Salvation Army</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5769</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Salvation Army</t>
   </si>
   <si>
     <t>The Sanibel School PTA</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5739</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Sanibel School PTA</t>
   </si>
   <si>
     <t>The Soccer Pit Youth Athletic Club, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5885</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Soccer Pit Youth Athletic Club, Inc.</t>
   </si>
   <si>
     <t>The Sunshine Kids Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5639</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Sunshine Kids Foundation</t>
   </si>
   <si>
     <t>The Talkin' Monkeys Project, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5649</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Talkin' Monkeys Project, Inc.</t>
   </si>
   <si>
     <t>The Think Pineapple Foundation</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5642</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Think Pineapple Foundation</t>
   </si>
   <si>
     <t>The Wonder Gardens</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5650</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=The Wonder Gardens</t>
   </si>
   <si>
     <t>Threat to Thriving Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5677</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Threat to Thriving Inc.</t>
   </si>
   <si>
     <t>Thrive Community Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5659</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Thrive Community Church</t>
   </si>
   <si>
     <t>Tice Elementary School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5661</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Tice Elementary School</t>
   </si>
   <si>
     <t>Transportation Security Administration (TSA) - K9 Team</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5660</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Transportation Security Administration (TSA) - K9 Team</t>
   </si>
   <si>
     <t>Tri-County Animal Rescue</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5662</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Tri-County Animal Rescue</t>
   </si>
   <si>
     <t>Tri-County Athletes</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5674</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Tri-County Athletes</t>
   </si>
   <si>
     <t>Tri-County Challenger Baseball, Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5676</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Tri-County Challenger Baseball, Inc.</t>
   </si>
   <si>
     <t>Turning Point Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5865</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Turning Point Church</t>
   </si>
   <si>
     <t>UF/IFAS Alachua County 4-H</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5666</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=UF/IFAS Alachua County 4-H</t>
   </si>
   <si>
     <t>UF/IFAS Extension Okeechobee County 4-H</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5770</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=UF/IFAS Extension Okeechobee County 4-H</t>
   </si>
   <si>
     <t>Unitarian Universalist Church of Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5670</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Unitarian Universalist Church of Fort Myers</t>
   </si>
   <si>
     <t>United Arts Collier</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5688</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=United Arts Collier</t>
   </si>
   <si>
     <t>United Manganni Veterans</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5710</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=United Manganni Veterans</t>
   </si>
   <si>
     <t>United Way of Lee, Hendry, and Glades</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5741</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=United Way of Lee, Hendry, and Glades</t>
   </si>
   <si>
     <t>Unity of Bonita Springs Christian Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5786</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Unity of Bonita Springs Christian Church</t>
   </si>
   <si>
     <t>University of Miami Bascom Palmer Eye Institute</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5794</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=University of Miami Bascom Palmer Eye Institute</t>
   </si>
   <si>
     <t>University Peer-to-Peer Pedestrian and Bicycle Safety Program</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5797</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=University Peer-to-Peer Pedestrian and Bicycle Safety Program</t>
   </si>
   <si>
     <t>Unlocked Memories, INC</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5798</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Unlocked Memories, INC</t>
   </si>
   <si>
     <t>US Army</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5802</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=US Army</t>
   </si>
   <si>
     <t>US Army Corps of Engineers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5804</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=US Army Corps of Engineers</t>
   </si>
   <si>
     <t>USGA / Fiddlesticks Country Club</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5805</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=USGA / Fiddlesticks Country Club</t>
   </si>
   <si>
     <t>Valeries House Inc.</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5824</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Valeries House Inc.</t>
   </si>
   <si>
     <t>Vaxtruths</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5845</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Vaxtruths</t>
   </si>
   <si>
     <t>Venture Church</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5908</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Venture Church</t>
   </si>
   <si>
     <t>Victor Arias for Lee County School Superintendent</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5911</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Victor Arias for Lee County School Superintendent</t>
   </si>
   <si>
     <t>Vine Christian Academy</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5883</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Vine Christian Academy</t>
   </si>
   <si>
     <t>Visuality, Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5890</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Visuality, Inc</t>
   </si>
   <si>
     <t>Wa-Ke Hatchee Recreation Center</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5907</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Wa-Ke Hatchee Recreation Center</t>
   </si>
   <si>
     <t>Warrior Homes of Collier</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5746</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Warrior Homes of Collier</t>
   </si>
   <si>
     <t>We Rock the Spectrum Kid's Gym / My Brother Rocks the Spectrum</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5752</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=We Rock the Spectrum Kid's Gym / My Brother Rocks the Spectrum</t>
   </si>
   <si>
     <t>Wellfit Girls</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5753</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Wellfit Girls</t>
   </si>
   <si>
     <t>WGCU Public Media</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5800</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=WGCU Public Media</t>
   </si>
   <si>
     <t>Wildlife Center of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5764</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Wildlife Center of Southwest Florida</t>
   </si>
   <si>
     <t>Wolfhounds Legacy Corp</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5783</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Wolfhounds Legacy Corp</t>
   </si>
   <si>
     <t>Women's March Fort Myers Inc</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5755</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Women's March Fort Myers Inc</t>
   </si>
   <si>
     <t>Ymca of Collier County</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5758</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Ymca of Collier County</t>
   </si>
   <si>
     <t>YMCA of Southwest Florida</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5767</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=YMCA of Southwest Florida</t>
   </si>
   <si>
     <t>YMCA of Southwest Florida- Fort Myers</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5756</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=YMCA of Southwest Florida- Fort Myers</t>
   </si>
   <si>
     <t>Young Life College</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5771</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Young Life College</t>
   </si>
   <si>
     <t>Youth Haven</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5772</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=Youth Haven</t>
   </si>
   <si>
     <t>YREADS at Peace River Elementary School</t>
   </si>
   <si>
-    <t>https://servicelearning.fgcu.edu/CommunityPartnerDatabase/AgencyView/Index?ID=5775</t>
+    <t>https://fgcu.campuslabs.com/engage/events?query=YREADS at Peace River Elementary School</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3296,6 +3296,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3314,12 +3321,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3327,8 +3335,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{622B1FC5-A7BF-4D65-A634-B263629E2AAB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{808A3734-9FB0-4686-BBBD-3FD559B4EEA6}"/>
@@ -3668,42 +3683,42 @@
   </sheetPr>
   <dimension ref="A1:D538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.5546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3714,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3725,18 +3740,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>5834</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +3773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3813,7 +3828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3835,7 +3850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3857,7 +3872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3868,7 +3883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -3879,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3890,7 +3905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3912,7 +3927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3923,7 +3938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -3934,7 +3949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -3945,7 +3960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3956,7 +3971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3967,7 +3982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3978,7 +3993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -3989,7 +4004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -4000,7 +4015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -4011,7 +4026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -4022,7 +4037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -4033,7 +4048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -4055,7 +4070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -4066,7 +4081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -4077,7 +4092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -4088,7 +4103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -4099,7 +4114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -4110,7 +4125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -4121,7 +4136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -4132,7 +4147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -4143,7 +4158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -4154,7 +4169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -4165,7 +4180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -4176,7 +4191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -4187,7 +4202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4209,7 +4224,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
@@ -4253,7 +4268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -4264,7 +4279,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
@@ -4275,7 +4290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -4297,7 +4312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -4308,7 +4323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
@@ -4319,7 +4334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
@@ -4330,7 +4345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
@@ -4363,7 +4378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -4374,7 +4389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
@@ -4385,7 +4400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
@@ -4396,7 +4411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>131</v>
       </c>
@@ -4407,7 +4422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>133</v>
       </c>
@@ -4418,7 +4433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
@@ -4429,7 +4444,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
@@ -4440,7 +4455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
@@ -4451,7 +4466,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -4462,7 +4477,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>147</v>
       </c>
@@ -4495,7 +4510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>149</v>
       </c>
@@ -4506,7 +4521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
@@ -4517,7 +4532,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
@@ -4539,7 +4554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
@@ -4550,7 +4565,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
@@ -4561,7 +4576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -4572,7 +4587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
@@ -4583,7 +4598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>165</v>
       </c>
@@ -4594,7 +4609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
@@ -4605,7 +4620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
@@ -4616,7 +4631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -4638,7 +4653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
@@ -4649,7 +4664,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
@@ -4671,7 +4686,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
@@ -4682,7 +4697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
@@ -4693,7 +4708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
@@ -4715,7 +4730,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>191</v>
       </c>
@@ -4737,7 +4752,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -4748,7 +4763,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>195</v>
       </c>
@@ -4759,7 +4774,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
@@ -4770,7 +4785,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>201</v>
       </c>
@@ -4792,7 +4807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>203</v>
       </c>
@@ -4803,7 +4818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -4814,7 +4829,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -4825,7 +4840,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>211</v>
       </c>
@@ -4847,7 +4862,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>213</v>
       </c>
@@ -4858,7 +4873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
@@ -4869,7 +4884,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>217</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>219</v>
       </c>
@@ -4891,7 +4906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>221</v>
       </c>
@@ -4902,7 +4917,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>223</v>
       </c>
@@ -4913,7 +4928,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>225</v>
       </c>
@@ -4924,7 +4939,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>227</v>
       </c>
@@ -4935,7 +4950,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>229</v>
       </c>
@@ -4946,7 +4961,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>231</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>233</v>
       </c>
@@ -4968,7 +4983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>235</v>
       </c>
@@ -4979,7 +4994,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>237</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
         <v>239</v>
       </c>
@@ -5001,7 +5016,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
         <v>241</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
         <v>243</v>
       </c>
@@ -5023,7 +5038,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
         <v>247</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
         <v>249</v>
       </c>
@@ -5056,7 +5071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
         <v>251</v>
       </c>
@@ -5067,7 +5082,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
         <v>253</v>
       </c>
@@ -5078,7 +5093,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
         <v>255</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>257</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>259</v>
       </c>
@@ -5111,7 +5126,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>261</v>
       </c>
@@ -5122,7 +5137,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
         <v>263</v>
       </c>
@@ -5133,7 +5148,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
         <v>265</v>
       </c>
@@ -5144,7 +5159,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
         <v>267</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
         <v>269</v>
       </c>
@@ -5166,7 +5181,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
         <v>271</v>
       </c>
@@ -5177,7 +5192,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
         <v>273</v>
       </c>
@@ -5188,7 +5203,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
         <v>275</v>
       </c>
@@ -5199,7 +5214,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
         <v>277</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
         <v>279</v>
       </c>
@@ -5221,7 +5236,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
         <v>281</v>
       </c>
@@ -5232,7 +5247,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
         <v>283</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
         <v>285</v>
       </c>
@@ -5254,7 +5269,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
         <v>287</v>
       </c>
@@ -5265,7 +5280,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>289</v>
       </c>
@@ -5276,7 +5291,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
         <v>291</v>
       </c>
@@ -5287,7 +5302,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
         <v>293</v>
       </c>
@@ -5298,7 +5313,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
         <v>295</v>
       </c>
@@ -5309,7 +5324,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
         <v>297</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
         <v>299</v>
       </c>
@@ -5331,7 +5346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
         <v>301</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
         <v>303</v>
       </c>
@@ -5353,7 +5368,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
         <v>305</v>
       </c>
@@ -5364,7 +5379,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
         <v>307</v>
       </c>
@@ -5375,7 +5390,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
         <v>309</v>
       </c>
@@ -5386,7 +5401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
         <v>311</v>
       </c>
@@ -5397,7 +5412,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>313</v>
       </c>
@@ -5408,7 +5423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
         <v>315</v>
       </c>
@@ -5419,7 +5434,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
         <v>317</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
         <v>319</v>
       </c>
@@ -5441,7 +5456,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
         <v>321</v>
       </c>
@@ -5452,7 +5467,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
         <v>323</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
         <v>325</v>
       </c>
@@ -5474,7 +5489,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
         <v>327</v>
       </c>
@@ -5485,7 +5500,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
         <v>329</v>
       </c>
@@ -5496,7 +5511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
         <v>331</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
         <v>333</v>
       </c>
@@ -5518,7 +5533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
         <v>335</v>
       </c>
@@ -5529,7 +5544,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
         <v>337</v>
       </c>
@@ -5540,7 +5555,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
         <v>339</v>
       </c>
@@ -5551,7 +5566,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
         <v>341</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
         <v>343</v>
       </c>
@@ -5573,7 +5588,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
         <v>345</v>
       </c>
@@ -5584,7 +5599,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
         <v>347</v>
       </c>
@@ -5595,7 +5610,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
         <v>349</v>
       </c>
@@ -5606,7 +5621,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
         <v>351</v>
       </c>
@@ -5617,7 +5632,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
         <v>353</v>
       </c>
@@ -5628,7 +5643,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
         <v>355</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
         <v>357</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
         <v>359</v>
       </c>
@@ -5661,7 +5676,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
         <v>361</v>
       </c>
@@ -5672,7 +5687,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
         <v>363</v>
       </c>
@@ -5683,7 +5698,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
         <v>365</v>
       </c>
@@ -5694,7 +5709,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
         <v>367</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
         <v>369</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
         <v>371</v>
       </c>
@@ -5727,7 +5742,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
         <v>373</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
         <v>375</v>
       </c>
@@ -5749,7 +5764,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
         <v>377</v>
       </c>
@@ -5760,7 +5775,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
         <v>379</v>
       </c>
@@ -5771,7 +5786,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
         <v>381</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
         <v>383</v>
       </c>
@@ -5793,7 +5808,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
         <v>385</v>
       </c>
@@ -5804,7 +5819,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
         <v>387</v>
       </c>
@@ -5815,7 +5830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
         <v>389</v>
       </c>
@@ -5826,7 +5841,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
         <v>391</v>
       </c>
@@ -5837,7 +5852,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
         <v>393</v>
       </c>
@@ -5848,7 +5863,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
         <v>395</v>
       </c>
@@ -5859,7 +5874,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
         <v>397</v>
       </c>
@@ -5870,7 +5885,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
         <v>399</v>
       </c>
@@ -5881,7 +5896,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
         <v>401</v>
       </c>
@@ -5892,7 +5907,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
         <v>403</v>
       </c>
@@ -5903,7 +5918,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
         <v>405</v>
       </c>
@@ -5914,7 +5929,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
         <v>407</v>
       </c>
@@ -5925,7 +5940,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
         <v>409</v>
       </c>
@@ -5936,7 +5951,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
         <v>411</v>
       </c>
@@ -5947,7 +5962,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
         <v>413</v>
       </c>
@@ -5958,7 +5973,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
         <v>415</v>
       </c>
@@ -5969,7 +5984,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
         <v>417</v>
       </c>
@@ -5980,7 +5995,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
         <v>419</v>
       </c>
@@ -5991,7 +6006,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
         <v>421</v>
       </c>
@@ -6002,7 +6017,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
         <v>423</v>
       </c>
@@ -6013,7 +6028,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
         <v>425</v>
       </c>
@@ -6024,7 +6039,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
         <v>427</v>
       </c>
@@ -6035,7 +6050,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
         <v>429</v>
       </c>
@@ -6046,7 +6061,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
         <v>431</v>
       </c>
@@ -6057,7 +6072,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
         <v>433</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
         <v>435</v>
       </c>
@@ -6079,7 +6094,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
         <v>437</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
         <v>439</v>
       </c>
@@ -6101,7 +6116,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
         <v>441</v>
       </c>
@@ -6112,7 +6127,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
         <v>443</v>
       </c>
@@ -6123,7 +6138,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
         <v>445</v>
       </c>
@@ -6134,7 +6149,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
         <v>447</v>
       </c>
@@ -6145,7 +6160,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
         <v>449</v>
       </c>
@@ -6156,7 +6171,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
         <v>451</v>
       </c>
@@ -6167,7 +6182,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
         <v>453</v>
       </c>
@@ -6178,7 +6193,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
         <v>455</v>
       </c>
@@ -6189,7 +6204,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
         <v>457</v>
       </c>
@@ -6200,7 +6215,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
         <v>459</v>
       </c>
@@ -6211,7 +6226,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
         <v>461</v>
       </c>
@@ -6222,7 +6237,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
         <v>463</v>
       </c>
@@ -6233,7 +6248,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
         <v>465</v>
       </c>
@@ -6244,7 +6259,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
         <v>467</v>
       </c>
@@ -6255,7 +6270,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
         <v>469</v>
       </c>
@@ -6266,7 +6281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
         <v>471</v>
       </c>
@@ -6277,7 +6292,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
         <v>473</v>
       </c>
@@ -6288,7 +6303,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
         <v>475</v>
       </c>
@@ -6299,7 +6314,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
         <v>477</v>
       </c>
@@ -6310,7 +6325,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
         <v>479</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
         <v>481</v>
       </c>
@@ -6332,7 +6347,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
         <v>483</v>
       </c>
@@ -6343,7 +6358,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
         <v>485</v>
       </c>
@@ -6354,7 +6369,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
         <v>487</v>
       </c>
@@ -6365,7 +6380,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
         <v>489</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
         <v>491</v>
       </c>
@@ -6387,7 +6402,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
         <v>493</v>
       </c>
@@ -6398,7 +6413,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
         <v>495</v>
       </c>
@@ -6409,7 +6424,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
         <v>497</v>
       </c>
@@ -6420,7 +6435,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
         <v>499</v>
       </c>
@@ -6431,7 +6446,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
         <v>501</v>
       </c>
@@ -6442,7 +6457,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
         <v>503</v>
       </c>
@@ -6453,7 +6468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
         <v>505</v>
       </c>
@@ -6464,7 +6479,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
         <v>507</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
         <v>509</v>
       </c>
@@ -6486,7 +6501,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
         <v>511</v>
       </c>
@@ -6497,7 +6512,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
         <v>513</v>
       </c>
@@ -6508,7 +6523,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
         <v>515</v>
       </c>
@@ -6519,7 +6534,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
         <v>517</v>
       </c>
@@ -6530,7 +6545,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
         <v>519</v>
       </c>
@@ -6541,7 +6556,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
         <v>521</v>
       </c>
@@ -6552,7 +6567,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
         <v>523</v>
       </c>
@@ -6563,7 +6578,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
         <v>525</v>
       </c>
@@ -6574,7 +6589,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
         <v>527</v>
       </c>
@@ -6585,7 +6600,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
         <v>529</v>
       </c>
@@ -6596,7 +6611,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
         <v>531</v>
       </c>
@@ -6607,7 +6622,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
         <v>533</v>
       </c>
@@ -6618,7 +6633,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
         <v>535</v>
       </c>
@@ -6629,7 +6644,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
         <v>537</v>
       </c>
@@ -6640,7 +6655,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
         <v>539</v>
       </c>
@@ -6651,7 +6666,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
         <v>541</v>
       </c>
@@ -6662,7 +6677,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
         <v>543</v>
       </c>
@@ -6673,7 +6688,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
         <v>545</v>
       </c>
@@ -6684,7 +6699,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
         <v>547</v>
       </c>
@@ -6695,7 +6710,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
         <v>549</v>
       </c>
@@ -6706,7 +6721,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
         <v>551</v>
       </c>
@@ -6717,7 +6732,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
         <v>553</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
         <v>555</v>
       </c>
@@ -6739,7 +6754,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
         <v>557</v>
       </c>
@@ -6750,7 +6765,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
         <v>559</v>
       </c>
@@ -6761,7 +6776,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
         <v>561</v>
       </c>
@@ -6772,7 +6787,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
         <v>563</v>
       </c>
@@ -6783,7 +6798,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
         <v>565</v>
       </c>
@@ -6794,7 +6809,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
         <v>567</v>
       </c>
@@ -6805,7 +6820,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
         <v>569</v>
       </c>
@@ -6816,7 +6831,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
         <v>571</v>
       </c>
@@ -6827,7 +6842,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
         <v>573</v>
       </c>
@@ -6838,7 +6853,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
         <v>575</v>
       </c>
@@ -6849,7 +6864,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
         <v>577</v>
       </c>
@@ -6860,7 +6875,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
         <v>579</v>
       </c>
@@ -6871,7 +6886,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
         <v>581</v>
       </c>
@@ -6882,7 +6897,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
         <v>583</v>
       </c>
@@ -6893,7 +6908,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
         <v>585</v>
       </c>
@@ -6904,7 +6919,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
         <v>587</v>
       </c>
@@ -6915,7 +6930,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
         <v>589</v>
       </c>
@@ -6926,7 +6941,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
         <v>591</v>
       </c>
@@ -6937,7 +6952,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
         <v>593</v>
       </c>
@@ -6948,7 +6963,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
         <v>595</v>
       </c>
@@ -6959,7 +6974,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
         <v>597</v>
       </c>
@@ -6970,7 +6985,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
         <v>599</v>
       </c>
@@ -6981,7 +6996,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
         <v>601</v>
       </c>
@@ -6992,7 +7007,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
         <v>603</v>
       </c>
@@ -7003,7 +7018,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
         <v>605</v>
       </c>
@@ -7014,7 +7029,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
         <v>607</v>
       </c>
@@ -7025,7 +7040,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
         <v>609</v>
       </c>
@@ -7036,7 +7051,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
         <v>611</v>
       </c>
@@ -7047,7 +7062,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
         <v>613</v>
       </c>
@@ -7058,7 +7073,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
         <v>615</v>
       </c>
@@ -7069,7 +7084,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
         <v>617</v>
       </c>
@@ -7080,7 +7095,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
         <v>619</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
         <v>621</v>
       </c>
@@ -7102,7 +7117,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
         <v>623</v>
       </c>
@@ -7113,7 +7128,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
         <v>625</v>
       </c>
@@ -7124,7 +7139,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
         <v>627</v>
       </c>
@@ -7135,7 +7150,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
         <v>629</v>
       </c>
@@ -7146,7 +7161,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
         <v>631</v>
       </c>
@@ -7157,7 +7172,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
         <v>633</v>
       </c>
@@ -7168,7 +7183,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
         <v>635</v>
       </c>
@@ -7179,7 +7194,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
         <v>637</v>
       </c>
@@ -7190,7 +7205,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
         <v>639</v>
       </c>
@@ -7201,7 +7216,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
         <v>641</v>
       </c>
@@ -7212,7 +7227,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
         <v>643</v>
       </c>
@@ -7223,7 +7238,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
         <v>645</v>
       </c>
@@ -7234,7 +7249,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
         <v>647</v>
       </c>
@@ -7245,7 +7260,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
         <v>649</v>
       </c>
@@ -7256,7 +7271,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
         <v>651</v>
       </c>
@@ -7267,7 +7282,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
         <v>653</v>
       </c>
@@ -7278,7 +7293,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
         <v>655</v>
       </c>
@@ -7289,7 +7304,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
         <v>657</v>
       </c>
@@ -7300,7 +7315,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
         <v>659</v>
       </c>
@@ -7311,7 +7326,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
         <v>661</v>
       </c>
@@ -7322,7 +7337,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
         <v>663</v>
       </c>
@@ -7333,7 +7348,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
         <v>665</v>
       </c>
@@ -7344,7 +7359,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
         <v>667</v>
       </c>
@@ -7355,7 +7370,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
         <v>669</v>
       </c>
@@ -7366,7 +7381,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
         <v>671</v>
       </c>
@@ -7377,7 +7392,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
         <v>673</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
         <v>675</v>
       </c>
@@ -7399,7 +7414,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
         <v>677</v>
       </c>
@@ -7410,7 +7425,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
         <v>679</v>
       </c>
@@ -7421,7 +7436,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
         <v>681</v>
       </c>
@@ -7432,7 +7447,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
         <v>683</v>
       </c>
@@ -7443,7 +7458,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
         <v>685</v>
       </c>
@@ -7454,7 +7469,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
         <v>687</v>
       </c>
@@ -7465,7 +7480,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
         <v>689</v>
       </c>
@@ -7476,7 +7491,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
         <v>691</v>
       </c>
@@ -7487,7 +7502,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
         <v>693</v>
       </c>
@@ -7498,7 +7513,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
         <v>695</v>
       </c>
@@ -7509,7 +7524,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
         <v>697</v>
       </c>
@@ -7520,7 +7535,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350" s="2" t="s">
         <v>699</v>
       </c>
@@ -7531,7 +7546,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
         <v>701</v>
       </c>
@@ -7542,7 +7557,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
         <v>703</v>
       </c>
@@ -7553,7 +7568,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
         <v>705</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354" s="2" t="s">
         <v>707</v>
       </c>
@@ -7575,7 +7590,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
         <v>709</v>
       </c>
@@ -7586,7 +7601,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356" s="2" t="s">
         <v>711</v>
       </c>
@@ -7597,7 +7612,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
         <v>713</v>
       </c>
@@ -7608,7 +7623,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
         <v>715</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
         <v>717</v>
       </c>
@@ -7630,7 +7645,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
         <v>719</v>
       </c>
@@ -7641,7 +7656,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
         <v>721</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
         <v>723</v>
       </c>
@@ -7663,7 +7678,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
         <v>725</v>
       </c>
@@ -7674,7 +7689,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
         <v>727</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
         <v>729</v>
       </c>
@@ -7696,7 +7711,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
         <v>731</v>
       </c>
@@ -7707,7 +7722,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
         <v>733</v>
       </c>
@@ -7718,7 +7733,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
         <v>735</v>
       </c>
@@ -7729,7 +7744,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
         <v>737</v>
       </c>
@@ -7740,7 +7755,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
         <v>739</v>
       </c>
@@ -7751,7 +7766,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
         <v>741</v>
       </c>
@@ -7762,7 +7777,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
         <v>743</v>
       </c>
@@ -7773,7 +7788,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
         <v>745</v>
       </c>
@@ -7784,7 +7799,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
         <v>747</v>
       </c>
@@ -7795,7 +7810,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
         <v>749</v>
       </c>
@@ -7806,7 +7821,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
         <v>751</v>
       </c>
@@ -7817,7 +7832,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
         <v>753</v>
       </c>
@@ -7828,7 +7843,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
         <v>755</v>
       </c>
@@ -7839,7 +7854,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
         <v>757</v>
       </c>
@@ -7850,7 +7865,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
         <v>759</v>
       </c>
@@ -7861,7 +7876,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
         <v>761</v>
       </c>
@@ -7872,7 +7887,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
         <v>763</v>
       </c>
@@ -7883,7 +7898,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
         <v>765</v>
       </c>
@@ -7894,7 +7909,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
         <v>767</v>
       </c>
@@ -7905,7 +7920,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
         <v>769</v>
       </c>
@@ -7916,7 +7931,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
         <v>771</v>
       </c>
@@ -7927,7 +7942,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
         <v>773</v>
       </c>
@@ -7938,7 +7953,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
         <v>775</v>
       </c>
@@ -7949,7 +7964,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
         <v>777</v>
       </c>
@@ -7960,7 +7975,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
         <v>779</v>
       </c>
@@ -7971,7 +7986,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
         <v>781</v>
       </c>
@@ -7982,7 +7997,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
         <v>783</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
         <v>785</v>
       </c>
@@ -8004,7 +8019,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
         <v>787</v>
       </c>
@@ -8015,7 +8030,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
         <v>789</v>
       </c>
@@ -8026,7 +8041,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
         <v>791</v>
       </c>
@@ -8037,7 +8052,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
         <v>793</v>
       </c>
@@ -8048,7 +8063,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
         <v>795</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
         <v>797</v>
       </c>
@@ -8070,7 +8085,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
         <v>799</v>
       </c>
@@ -8081,7 +8096,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
         <v>801</v>
       </c>
@@ -8092,7 +8107,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
         <v>803</v>
       </c>
@@ -8103,7 +8118,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
         <v>805</v>
       </c>
@@ -8114,7 +8129,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
         <v>807</v>
       </c>
@@ -8125,7 +8140,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
         <v>809</v>
       </c>
@@ -8136,7 +8151,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
         <v>811</v>
       </c>
@@ -8147,7 +8162,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
         <v>813</v>
       </c>
@@ -8158,7 +8173,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
         <v>815</v>
       </c>
@@ -8169,7 +8184,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
         <v>817</v>
       </c>
@@ -8180,7 +8195,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
         <v>819</v>
       </c>
@@ -8191,7 +8206,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
         <v>821</v>
       </c>
@@ -8202,7 +8217,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
         <v>823</v>
       </c>
@@ -8213,7 +8228,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
         <v>825</v>
       </c>
@@ -8224,7 +8239,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
         <v>827</v>
       </c>
@@ -8235,7 +8250,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
         <v>829</v>
       </c>
@@ -8246,7 +8261,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
         <v>831</v>
       </c>
@@ -8257,7 +8272,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
         <v>833</v>
       </c>
@@ -8268,7 +8283,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
         <v>835</v>
       </c>
@@ -8279,7 +8294,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
         <v>837</v>
       </c>
@@ -8290,7 +8305,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
         <v>839</v>
       </c>
@@ -8301,7 +8316,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
         <v>841</v>
       </c>
@@ -8312,7 +8327,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
         <v>843</v>
       </c>
@@ -8323,7 +8338,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
         <v>845</v>
       </c>
@@ -8334,7 +8349,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
         <v>847</v>
       </c>
@@ -8345,7 +8360,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
         <v>849</v>
       </c>
@@ -8356,7 +8371,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
         <v>851</v>
       </c>
@@ -8367,7 +8382,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
         <v>853</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
         <v>855</v>
       </c>
@@ -8389,7 +8404,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
         <v>857</v>
       </c>
@@ -8400,7 +8415,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
         <v>859</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
         <v>861</v>
       </c>
@@ -8422,7 +8437,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
         <v>863</v>
       </c>
@@ -8433,7 +8448,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
         <v>865</v>
       </c>
@@ -8444,7 +8459,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
         <v>867</v>
       </c>
@@ -8455,7 +8470,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
         <v>869</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
         <v>871</v>
       </c>
@@ -8477,7 +8492,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
         <v>873</v>
       </c>
@@ -8488,7 +8503,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
         <v>875</v>
       </c>
@@ -8499,7 +8514,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
         <v>877</v>
       </c>
@@ -8510,7 +8525,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
         <v>879</v>
       </c>
@@ -8521,7 +8536,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
         <v>881</v>
       </c>
@@ -8532,7 +8547,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
         <v>883</v>
       </c>
@@ -8543,7 +8558,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
         <v>885</v>
       </c>
@@ -8554,7 +8569,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
         <v>887</v>
       </c>
@@ -8565,7 +8580,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
         <v>889</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
         <v>891</v>
       </c>
@@ -8587,7 +8602,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
         <v>893</v>
       </c>
@@ -8598,7 +8613,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
         <v>895</v>
       </c>
@@ -8609,7 +8624,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
         <v>897</v>
       </c>
@@ -8620,7 +8635,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
         <v>899</v>
       </c>
@@ -8631,7 +8646,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
         <v>901</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
         <v>903</v>
       </c>
@@ -8653,7 +8668,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
         <v>905</v>
       </c>
@@ -8664,7 +8679,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
         <v>907</v>
       </c>
@@ -8675,7 +8690,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
         <v>909</v>
       </c>
@@ -8686,7 +8701,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
         <v>911</v>
       </c>
@@ -8697,7 +8712,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
         <v>913</v>
       </c>
@@ -8708,7 +8723,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
         <v>915</v>
       </c>
@@ -8719,7 +8734,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
         <v>917</v>
       </c>
@@ -8730,7 +8745,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
         <v>919</v>
       </c>
@@ -8741,7 +8756,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
         <v>921</v>
       </c>
@@ -8752,7 +8767,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
         <v>923</v>
       </c>
@@ -8763,7 +8778,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
         <v>925</v>
       </c>
@@ -8774,7 +8789,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
         <v>927</v>
       </c>
@@ -8785,7 +8800,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
         <v>929</v>
       </c>
@@ -8796,7 +8811,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
         <v>931</v>
       </c>
@@ -8807,7 +8822,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
         <v>933</v>
       </c>
@@ -8818,7 +8833,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
         <v>935</v>
       </c>
@@ -8829,7 +8844,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
         <v>937</v>
       </c>
@@ -8840,7 +8855,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470" s="2" t="s">
         <v>939</v>
       </c>
@@ -8851,7 +8866,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
         <v>941</v>
       </c>
@@ -8862,7 +8877,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472" s="2" t="s">
         <v>943</v>
       </c>
@@ -8873,7 +8888,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
         <v>945</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474" s="2" t="s">
         <v>947</v>
       </c>
@@ -8895,7 +8910,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
         <v>949</v>
       </c>
@@ -8906,7 +8921,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3">
       <c r="A476" s="2" t="s">
         <v>951</v>
       </c>
@@ -8917,7 +8932,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3">
       <c r="A477" s="2" t="s">
         <v>953</v>
       </c>
@@ -8928,7 +8943,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3">
       <c r="A478" s="2" t="s">
         <v>955</v>
       </c>
@@ -8939,7 +8954,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
         <v>957</v>
       </c>
@@ -8950,7 +8965,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
         <v>959</v>
       </c>
@@ -8961,7 +8976,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
         <v>961</v>
       </c>
@@ -8972,7 +8987,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
         <v>963</v>
       </c>
@@ -8983,7 +8998,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
         <v>965</v>
       </c>
@@ -8994,7 +9009,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
         <v>967</v>
       </c>
@@ -9005,7 +9020,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
         <v>969</v>
       </c>
@@ -9016,7 +9031,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
         <v>971</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
         <v>973</v>
       </c>
@@ -9038,7 +9053,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
         <v>975</v>
       </c>
@@ -9049,7 +9064,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
         <v>977</v>
       </c>
@@ -9060,7 +9075,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
         <v>979</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
         <v>981</v>
       </c>
@@ -9082,7 +9097,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
         <v>983</v>
       </c>
@@ -9093,7 +9108,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
         <v>985</v>
       </c>
@@ -9104,7 +9119,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
         <v>987</v>
       </c>
@@ -9115,7 +9130,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
         <v>989</v>
       </c>
@@ -9126,7 +9141,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
         <v>991</v>
       </c>
@@ -9137,7 +9152,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
         <v>993</v>
       </c>
@@ -9148,7 +9163,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
         <v>995</v>
       </c>
@@ -9159,7 +9174,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
         <v>997</v>
       </c>
@@ -9170,7 +9185,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
         <v>999</v>
       </c>
@@ -9181,7 +9196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
         <v>1001</v>
       </c>
@@ -9192,7 +9207,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
         <v>1003</v>
       </c>
@@ -9203,7 +9218,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
         <v>1005</v>
       </c>
@@ -9214,7 +9229,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
         <v>1007</v>
       </c>
@@ -9225,7 +9240,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
         <v>1009</v>
       </c>
@@ -9236,7 +9251,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
         <v>1011</v>
       </c>
@@ -9247,7 +9262,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
         <v>1013</v>
       </c>
@@ -9258,7 +9273,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
         <v>1015</v>
       </c>
@@ -9269,7 +9284,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
         <v>1017</v>
       </c>
@@ -9280,7 +9295,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
         <v>1019</v>
       </c>
@@ -9291,7 +9306,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
         <v>1021</v>
       </c>
@@ -9302,7 +9317,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
         <v>1023</v>
       </c>
@@ -9313,7 +9328,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
         <v>1025</v>
       </c>
@@ -9324,7 +9339,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
         <v>1027</v>
       </c>
@@ -9335,7 +9350,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3">
       <c r="A515" s="2" t="s">
         <v>1029</v>
       </c>
@@ -9346,7 +9361,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3">
       <c r="A516" s="2" t="s">
         <v>1031</v>
       </c>
@@ -9357,7 +9372,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3">
       <c r="A517" s="2" t="s">
         <v>1033</v>
       </c>
@@ -9368,7 +9383,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3">
       <c r="A518" s="2" t="s">
         <v>1035</v>
       </c>
@@ -9379,7 +9394,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3">
       <c r="A519" s="2" t="s">
         <v>1037</v>
       </c>
@@ -9390,7 +9405,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3">
       <c r="A520" s="2" t="s">
         <v>1039</v>
       </c>
@@ -9401,7 +9416,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3">
       <c r="A521" s="2" t="s">
         <v>1041</v>
       </c>
@@ -9412,7 +9427,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3">
       <c r="A522" s="2" t="s">
         <v>1043</v>
       </c>
@@ -9423,7 +9438,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3">
       <c r="A523" s="2" t="s">
         <v>1045</v>
       </c>
@@ -9434,7 +9449,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3">
       <c r="A524" s="2" t="s">
         <v>1047</v>
       </c>
@@ -9445,7 +9460,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3">
       <c r="A525" s="2" t="s">
         <v>1049</v>
       </c>
@@ -9456,7 +9471,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3">
       <c r="A526" s="2" t="s">
         <v>1051</v>
       </c>
@@ -9467,7 +9482,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3">
       <c r="A527" s="2" t="s">
         <v>1053</v>
       </c>
@@ -9478,7 +9493,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3">
       <c r="A528" s="2" t="s">
         <v>1055</v>
       </c>
@@ -9489,7 +9504,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3">
       <c r="A529" s="2" t="s">
         <v>1057</v>
       </c>
@@ -9500,7 +9515,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
         <v>1059</v>
       </c>
@@ -9511,7 +9526,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3">
       <c r="A531" s="2" t="s">
         <v>1061</v>
       </c>
@@ -9522,7 +9537,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3">
       <c r="A532" s="2" t="s">
         <v>1063</v>
       </c>
@@ -9533,7 +9548,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3">
       <c r="A533" s="2" t="s">
         <v>1065</v>
       </c>
@@ -9544,7 +9559,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3">
       <c r="A534" s="2" t="s">
         <v>1067</v>
       </c>
@@ -9555,7 +9570,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3">
       <c r="A535" s="2" t="s">
         <v>1069</v>
       </c>
@@ -9566,7 +9581,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3">
       <c r="A536" s="2" t="s">
         <v>1071</v>
       </c>
@@ -9577,7 +9592,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3">
       <c r="A537" s="2" t="s">
         <v>1073</v>
       </c>
@@ -9588,7 +9603,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3">
       <c r="A538" s="2" t="s">
         <v>1075</v>
       </c>
@@ -9600,7 +9615,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{1A197D34-9083-4C9F-B203-C88452DDF51F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{BBFA407F-95E4-40CF-A3EF-9C2AA53485AB}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://fgcu.campuslabs.com/engage/events?query=Agency" xr:uid="{644F9647-FF84-4204-8F27-F72E3BDB136B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>